--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col4a6</t>
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1293393333333333</v>
+        <v>0.1072476666666667</v>
       </c>
       <c r="H2">
-        <v>0.388018</v>
+        <v>0.321743</v>
       </c>
       <c r="I2">
-        <v>0.1029778321305656</v>
+        <v>0.0853607675234147</v>
       </c>
       <c r="J2">
-        <v>0.1029778321305656</v>
+        <v>0.08536076752341469</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N2">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O2">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P2">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q2">
-        <v>21.939758424628</v>
+        <v>22.44290090363667</v>
       </c>
       <c r="R2">
-        <v>197.457825821652</v>
+        <v>201.98610813273</v>
       </c>
       <c r="S2">
-        <v>0.07649581924024407</v>
+        <v>0.06937403765667884</v>
       </c>
       <c r="T2">
-        <v>0.07649581924024407</v>
+        <v>0.06937403765667882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1293393333333333</v>
+        <v>0.1072476666666667</v>
       </c>
       <c r="H3">
-        <v>0.388018</v>
+        <v>0.321743</v>
       </c>
       <c r="I3">
-        <v>0.1029778321305656</v>
+        <v>0.0853607675234147</v>
       </c>
       <c r="J3">
-        <v>0.1029778321305656</v>
+        <v>0.08536076752341469</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q3">
-        <v>0.1273831621428889</v>
+        <v>0.1056256172067778</v>
       </c>
       <c r="R3">
-        <v>1.146448459286</v>
+        <v>0.9506305548610001</v>
       </c>
       <c r="S3">
-        <v>0.0004441379506984406</v>
+        <v>0.0003265030477599963</v>
       </c>
       <c r="T3">
-        <v>0.0004441379506984406</v>
+        <v>0.0003265030477599962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1293393333333333</v>
+        <v>0.1072476666666667</v>
       </c>
       <c r="H4">
-        <v>0.388018</v>
+        <v>0.321743</v>
       </c>
       <c r="I4">
-        <v>0.1029778321305656</v>
+        <v>0.0853607675234147</v>
       </c>
       <c r="J4">
-        <v>0.1029778321305656</v>
+        <v>0.08536076752341469</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N4">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q4">
-        <v>0.4033087115522223</v>
+        <v>0.1891684393577778</v>
       </c>
       <c r="R4">
-        <v>3.62977840397</v>
+        <v>1.70251595422</v>
       </c>
       <c r="S4">
-        <v>0.001406188240536091</v>
+        <v>0.0005847451936721388</v>
       </c>
       <c r="T4">
-        <v>0.001406188240536091</v>
+        <v>0.0005847451936721387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1293393333333333</v>
+        <v>0.1072476666666667</v>
       </c>
       <c r="H5">
-        <v>0.388018</v>
+        <v>0.321743</v>
       </c>
       <c r="I5">
-        <v>0.1029778321305656</v>
+        <v>0.0853607675234147</v>
       </c>
       <c r="J5">
-        <v>0.1029778321305656</v>
+        <v>0.08536076752341469</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N5">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q5">
-        <v>7.064611649845334</v>
+        <v>4.877005168210999</v>
       </c>
       <c r="R5">
-        <v>63.581504848608</v>
+        <v>43.89304651389899</v>
       </c>
       <c r="S5">
-        <v>0.02463168669908699</v>
+        <v>0.01507548162530374</v>
       </c>
       <c r="T5">
-        <v>0.02463168669908698</v>
+        <v>0.01507548162530373</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.11319</v>
       </c>
       <c r="I6">
-        <v>0.2954344719817748</v>
+        <v>0.2953374363992068</v>
       </c>
       <c r="J6">
-        <v>0.2954344719817748</v>
+        <v>0.2953374363992068</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N6">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O6">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P6">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q6">
-        <v>62.94326469573999</v>
+        <v>77.64959255343332</v>
       </c>
       <c r="R6">
-        <v>566.4893822616599</v>
+        <v>698.8463329808999</v>
       </c>
       <c r="S6">
-        <v>0.2194598730472485</v>
+        <v>0.2400253773323376</v>
       </c>
       <c r="T6">
-        <v>0.2194598730472486</v>
+        <v>0.2400253773323376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.11319</v>
       </c>
       <c r="I7">
-        <v>0.2954344719817748</v>
+        <v>0.2953374363992068</v>
       </c>
       <c r="J7">
-        <v>0.2954344719817748</v>
+        <v>0.2953374363992068</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q7">
-        <v>0.3654512477922221</v>
+        <v>0.3654512477922223</v>
       </c>
       <c r="R7">
-        <v>3.289061230129999</v>
+        <v>3.28906123013</v>
       </c>
       <c r="S7">
-        <v>0.001274193272832696</v>
+        <v>0.001129659161927222</v>
       </c>
       <c r="T7">
-        <v>0.001274193272832696</v>
+        <v>0.001129659161927222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>1.11319</v>
       </c>
       <c r="I8">
-        <v>0.2954344719817748</v>
+        <v>0.2953374363992068</v>
       </c>
       <c r="J8">
-        <v>0.2954344719817748</v>
+        <v>0.2953374363992068</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N8">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q8">
-        <v>1.157057725705555</v>
+        <v>0.6544988236222221</v>
       </c>
       <c r="R8">
-        <v>10.41351953135</v>
+        <v>5.890489412599999</v>
       </c>
       <c r="S8">
-        <v>0.004034232142535581</v>
+        <v>0.002023144255333879</v>
       </c>
       <c r="T8">
-        <v>0.004034232142535581</v>
+        <v>0.002023144255333878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,10 +977,10 @@
         <v>1.11319</v>
       </c>
       <c r="I9">
-        <v>0.2954344719817748</v>
+        <v>0.2953374363992068</v>
       </c>
       <c r="J9">
-        <v>0.2954344719817748</v>
+        <v>0.2953374363992068</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N9">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q9">
-        <v>20.26775830629333</v>
+        <v>16.87381973563</v>
       </c>
       <c r="R9">
-        <v>182.40982475664</v>
+        <v>151.86437762067</v>
       </c>
       <c r="S9">
-        <v>0.07066617351915797</v>
+        <v>0.05215925564960812</v>
       </c>
       <c r="T9">
-        <v>0.07066617351915797</v>
+        <v>0.05215925564960811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7555893333333333</v>
+        <v>0.7657353333333333</v>
       </c>
       <c r="H10">
-        <v>2.266768</v>
+        <v>2.297206</v>
       </c>
       <c r="I10">
-        <v>0.6015876958876596</v>
+        <v>0.6094655278262259</v>
       </c>
       <c r="J10">
-        <v>0.6015876958876596</v>
+        <v>0.6094655278262258</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N10">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O10">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P10">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q10">
-        <v>128.170193972128</v>
+        <v>160.2395906460733</v>
       </c>
       <c r="R10">
-        <v>1153.531745749152</v>
+        <v>1442.15631581466</v>
       </c>
       <c r="S10">
-        <v>0.4468820394609775</v>
+        <v>0.4953222153990873</v>
       </c>
       <c r="T10">
-        <v>0.4468820394609775</v>
+        <v>0.4953222153990872</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7555893333333333</v>
+        <v>0.7657353333333333</v>
       </c>
       <c r="H11">
-        <v>2.266768</v>
+        <v>2.297206</v>
       </c>
       <c r="I11">
-        <v>0.6015876958876596</v>
+        <v>0.6094655278262259</v>
       </c>
       <c r="J11">
-        <v>0.6015876958876596</v>
+        <v>0.6094655278262258</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q11">
-        <v>0.7441615483928887</v>
+        <v>0.7541540969068889</v>
       </c>
       <c r="R11">
-        <v>6.697453935535998</v>
+        <v>6.787386872162001</v>
       </c>
       <c r="S11">
-        <v>0.002594615956550477</v>
+        <v>0.002331192163722443</v>
       </c>
       <c r="T11">
-        <v>0.002594615956550477</v>
+        <v>0.002331192163722443</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7555893333333333</v>
+        <v>0.7657353333333333</v>
       </c>
       <c r="H12">
-        <v>2.266768</v>
+        <v>2.297206</v>
       </c>
       <c r="I12">
-        <v>0.6015876958876596</v>
+        <v>0.6094655278262259</v>
       </c>
       <c r="J12">
-        <v>0.6015876958876596</v>
+        <v>0.6094655278262258</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N12">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q12">
-        <v>2.356095030302222</v>
+        <v>1.350639715248889</v>
       </c>
       <c r="R12">
-        <v>21.20485527272</v>
+        <v>12.15575743724</v>
       </c>
       <c r="S12">
-        <v>0.008214831542927169</v>
+        <v>0.004175009766723127</v>
       </c>
       <c r="T12">
-        <v>0.008214831542927169</v>
+        <v>0.004175009766723127</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7657353333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.297206</v>
+      </c>
+      <c r="I13">
+        <v>0.6094655278262259</v>
+      </c>
+      <c r="J13">
+        <v>0.6094655278262258</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>45.474231</v>
+      </c>
+      <c r="N13">
+        <v>136.422693</v>
+      </c>
+      <c r="O13">
+        <v>0.1766090214824801</v>
+      </c>
+      <c r="P13">
+        <v>0.1766090214824801</v>
+      </c>
+      <c r="Q13">
+        <v>34.82122543286199</v>
+      </c>
+      <c r="R13">
+        <v>313.391028895758</v>
+      </c>
+      <c r="S13">
+        <v>0.107637110496693</v>
+      </c>
+      <c r="T13">
+        <v>0.107637110496693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7555893333333333</v>
-      </c>
-      <c r="H13">
-        <v>2.266768</v>
-      </c>
-      <c r="I13">
-        <v>0.6015876958876596</v>
-      </c>
-      <c r="J13">
-        <v>0.6015876958876596</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>54.620752</v>
-      </c>
-      <c r="N13">
-        <v>163.862256</v>
-      </c>
-      <c r="O13">
-        <v>0.2391940691454494</v>
-      </c>
-      <c r="P13">
-        <v>0.2391940691454494</v>
-      </c>
-      <c r="Q13">
-        <v>41.27085758984533</v>
-      </c>
-      <c r="R13">
-        <v>371.437718308608</v>
-      </c>
-      <c r="S13">
-        <v>0.1438962089272044</v>
-      </c>
-      <c r="T13">
-        <v>0.1438962089272044</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01235833333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.037075</v>
+      </c>
+      <c r="I14">
+        <v>0.009836268251152627</v>
+      </c>
+      <c r="J14">
+        <v>0.009836268251152625</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>209.26237</v>
+      </c>
+      <c r="N14">
+        <v>627.78711</v>
+      </c>
+      <c r="O14">
+        <v>0.8127157202241573</v>
+      </c>
+      <c r="P14">
+        <v>0.8127157202241573</v>
+      </c>
+      <c r="Q14">
+        <v>2.586134122583333</v>
+      </c>
+      <c r="R14">
+        <v>23.27520710325</v>
+      </c>
+      <c r="S14">
+        <v>0.007994089836053519</v>
+      </c>
+      <c r="T14">
+        <v>0.007994089836053517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01235833333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.037075</v>
+      </c>
+      <c r="I15">
+        <v>0.009836268251152627</v>
+      </c>
+      <c r="J15">
+        <v>0.009836268251152625</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9848756666666668</v>
+      </c>
+      <c r="N15">
+        <v>2.954627</v>
+      </c>
+      <c r="O15">
+        <v>0.003824977881910862</v>
+      </c>
+      <c r="P15">
+        <v>0.003824977881910862</v>
+      </c>
+      <c r="Q15">
+        <v>0.01217142178055556</v>
+      </c>
+      <c r="R15">
+        <v>0.109542796025</v>
+      </c>
+      <c r="S15">
+        <v>3.762350850120084E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.762350850120083E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01235833333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.037075</v>
+      </c>
+      <c r="I16">
+        <v>0.009836268251152627</v>
+      </c>
+      <c r="J16">
+        <v>0.009836268251152625</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.763846666666667</v>
+      </c>
+      <c r="N16">
+        <v>5.291539999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.006850280411451801</v>
+      </c>
+      <c r="P16">
+        <v>0.006850280411451801</v>
+      </c>
+      <c r="Q16">
+        <v>0.02179820505555555</v>
+      </c>
+      <c r="R16">
+        <v>0.1961838455</v>
+      </c>
+      <c r="S16">
+        <v>6.73811957226561E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.73811957226561E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01235833333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.037075</v>
+      </c>
+      <c r="I17">
+        <v>0.009836268251152627</v>
+      </c>
+      <c r="J17">
+        <v>0.009836268251152625</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>45.474231</v>
+      </c>
+      <c r="N17">
+        <v>136.422693</v>
+      </c>
+      <c r="O17">
+        <v>0.1766090214824801</v>
+      </c>
+      <c r="P17">
+        <v>0.1766090214824801</v>
+      </c>
+      <c r="Q17">
+        <v>0.5619857047749999</v>
+      </c>
+      <c r="R17">
+        <v>5.057871342974999</v>
+      </c>
+      <c r="S17">
+        <v>0.001737173710875251</v>
+      </c>
+      <c r="T17">
+        <v>0.001737173710875251</v>
       </c>
     </row>
   </sheetData>
